--- a/Part2/Tables/ordinal_mapping_assessment.xlsx
+++ b/Part2/Tables/ordinal_mapping_assessment.xlsx
@@ -25,6 +25,9 @@
     <t>feature</t>
   </si>
   <si>
+    <t>capital-gain</t>
+  </si>
+  <si>
     <t>education</t>
   </si>
   <si>
@@ -35,9 +38,6 @@
   </si>
   <si>
     <t>hours-per-week</t>
-  </si>
-  <si>
-    <t>capital-gain</t>
   </si>
   <si>
     <t>capital-loss</t>
@@ -423,7 +423,7 @@
         <v>3</v>
       </c>
       <c r="B2">
-        <v>0.3360678806757145</v>
+        <v>0.3425646981956917</v>
       </c>
       <c r="C2">
         <v>0</v>
@@ -434,7 +434,7 @@
         <v>4</v>
       </c>
       <c r="B3">
-        <v>0.3352715122489301</v>
+        <v>0.3190883909971172</v>
       </c>
       <c r="C3">
         <v>0</v>
@@ -445,7 +445,7 @@
         <v>5</v>
       </c>
       <c r="B4">
-        <v>0.2340370946445629</v>
+        <v>0.3186999902536608</v>
       </c>
       <c r="C4">
         <v>0</v>
@@ -456,7 +456,7 @@
         <v>6</v>
       </c>
       <c r="B5">
-        <v>0.2296581016385471</v>
+        <v>0.2393115765160782</v>
       </c>
       <c r="C5">
         <v>0</v>
@@ -467,7 +467,7 @@
         <v>7</v>
       </c>
       <c r="B6">
-        <v>0.2233364989203648</v>
+        <v>0.2305872358043329</v>
       </c>
       <c r="C6">
         <v>0</v>
@@ -478,10 +478,10 @@
         <v>8</v>
       </c>
       <c r="B7">
-        <v>0.1505007653680529</v>
+        <v>-0.01660572086367802</v>
       </c>
       <c r="C7">
-        <v>4.022159409213069E-164</v>
+        <v>0.00414249274312923</v>
       </c>
     </row>
     <row r="8" spans="1:3">
@@ -489,10 +489,10 @@
         <v>9</v>
       </c>
       <c r="B8">
-        <v>-0.009502349300418267</v>
+        <v>-0.009139039178183345</v>
       </c>
       <c r="C8">
-        <v>0.08652724317867366</v>
+        <v>0.1146005875690593</v>
       </c>
     </row>
   </sheetData>
